--- a/TableData/Table1.xlsx
+++ b/TableData/Table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Ulm\Master\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9C4E0-A928-437B-B99C-152F306399B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE21076-E0A2-4879-A1D4-9504ABE7C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A59CE7E0-0A70-4E5D-95BD-2E9715407D35}"/>
   </bookViews>
@@ -34,15 +34,6 @@
     <t>4. Extracting dates for which the filings are reporting for and removing of duplicated filings</t>
   </si>
   <si>
-    <t>5. Delete observations with incorrect date assignment</t>
-  </si>
-  <si>
-    <t>6. Merged Gemini processed Item 1 text to the underlying data set. We did not consider texts that were not processable</t>
-  </si>
-  <si>
-    <t>7. Extract financials statements from SEC and merge them. Also remove observations for years prior to 2016</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -89,6 +80,15 @@
   </si>
   <si>
     <t>4,279</t>
+  </si>
+  <si>
+    <t>7. Extract financials statements from DataStream and merge them. Also remove observations for report-for-years prior to 2016</t>
+  </si>
+  <si>
+    <t>5. Delete observations with incorrect date assignment (some companies submitted two or more filings due to addendums or data quality)</t>
+  </si>
+  <si>
+    <t>6. Merged Gemini processed Item 1 text to the underlying data set. We did not consider texts that were not processable (e.g. due to recitation errors)</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,13 +964,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,43 +1011,43 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TableData/Table1.xlsx
+++ b/TableData/Table1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE21076-E0A2-4879-A1D4-9504ABE7C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B66C3-9071-41DB-BF95-F5960628A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A59CE7E0-0A70-4E5D-95BD-2E9715407D35}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A59CE7E0-0A70-4E5D-95BD-2E9715407D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,36 +65,12 @@
     <t>32,611</t>
   </si>
   <si>
-    <t>31,289</t>
-  </si>
-  <si>
-    <t>30,029</t>
-  </si>
-  <si>
-    <t>28,161</t>
-  </si>
-  <si>
-    <t>23,882</t>
-  </si>
-  <si>
     <t>9,476</t>
   </si>
   <si>
     <t>5,139</t>
   </si>
   <si>
-    <t>1,322</t>
-  </si>
-  <si>
-    <t>1,260</t>
-  </si>
-  <si>
-    <t>1,868</t>
-  </si>
-  <si>
-    <t>4,279</t>
-  </si>
-  <si>
     <t>7. Extract financials statements from DataStream and merge them. Also remove observations for report-for-years prior to 2016</t>
   </si>
   <si>
@@ -89,6 +78,30 @@
   </si>
   <si>
     <t>6. Merged Gemini processed Item 1 text to the underlying data set. We did not consider texts that were not processable (e.g. due to recitation errors)</t>
+  </si>
+  <si>
+    <t>30,131</t>
+  </si>
+  <si>
+    <t>28,350</t>
+  </si>
+  <si>
+    <t>21,417</t>
+  </si>
+  <si>
+    <t>30,737</t>
+  </si>
+  <si>
+    <t>1,874</t>
+  </si>
+  <si>
+    <t>0,606</t>
+  </si>
+  <si>
+    <t>1,781</t>
+  </si>
+  <si>
+    <t>6,933</t>
   </si>
 </sst>
 </file>
@@ -950,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97575701-B41A-469F-885E-4B65B5E7E16F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +975,7 @@
     <col min="2" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -973,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -984,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -992,10 +1005,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1003,52 +1016,56 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/TableData/Table1.xlsx
+++ b/TableData/Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B66C3-9071-41DB-BF95-F5960628A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8568A1F-5705-40C9-B5B3-06A38C648F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A59CE7E0-0A70-4E5D-95BD-2E9715407D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A59CE7E0-0A70-4E5D-95BD-2E9715407D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>1,874</t>
   </si>
   <si>
-    <t>0,606</t>
-  </si>
-  <si>
     <t>1,781</t>
   </si>
   <si>
     <t>6,933</t>
+  </si>
+  <si>
+    <t>606</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1051,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1063,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
     </row>
